--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Courd\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Perso\DofusIdleCalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EF360F3-FDAB-44C0-A575-3384889256E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6091636B-C294-4254-ADF5-04D9D983433B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4C689499-8E43-4CF0-9A55-632E2E4B16D1}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,10 +472,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -483,10 +483,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -494,10 +494,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -505,10 +505,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -516,10 +516,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C6">
-        <v>86</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -527,10 +527,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C7">
-        <v>115</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -538,10 +538,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C8">
-        <v>148</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -549,10 +549,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="C9">
-        <v>186</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -560,10 +560,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="C10">
-        <v>229</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -571,10 +571,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="C11">
-        <v>277</v>
+        <v>654</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -582,10 +582,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="C12">
-        <v>331</v>
+        <v>780</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -593,10 +593,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="C13">
-        <v>391</v>
+        <v>922</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -604,10 +604,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="C14">
-        <v>457</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -615,10 +615,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="C15">
-        <v>529</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -626,10 +626,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="C16">
-        <v>608</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -637,10 +637,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>86</v>
+        <v>224</v>
       </c>
       <c r="C17">
-        <v>694</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -648,10 +648,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="C18">
-        <v>787</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -659,10 +659,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>101</v>
+        <v>280</v>
       </c>
       <c r="C19">
-        <v>888</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -670,10 +670,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>109</v>
+        <v>310</v>
       </c>
       <c r="C20">
-        <v>997</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -681,10 +681,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>117</v>
+        <v>344</v>
       </c>
       <c r="C21">
-        <v>1114</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -692,10 +692,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>126</v>
+        <v>382</v>
       </c>
       <c r="C22">
-        <v>1240</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -703,10 +703,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>136</v>
+        <v>424</v>
       </c>
       <c r="C23">
-        <v>1376</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -714,10 +714,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>146</v>
+        <v>472</v>
       </c>
       <c r="C24">
-        <v>1522</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -725,10 +725,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>156</v>
+        <v>524</v>
       </c>
       <c r="C25">
-        <v>1678</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -736,10 +736,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>167</v>
+        <v>566</v>
       </c>
       <c r="C26">
-        <v>1845</v>
+        <v>5234</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -747,10 +747,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>178</v>
+        <v>600</v>
       </c>
       <c r="C27">
-        <v>2023</v>
+        <v>5834</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -758,10 +758,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>190</v>
+        <v>630</v>
       </c>
       <c r="C28">
-        <v>2213</v>
+        <v>6464</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -769,10 +769,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>202</v>
+        <v>660</v>
       </c>
       <c r="C29">
-        <v>2415</v>
+        <v>7124</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -780,10 +780,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>215</v>
+        <v>694</v>
       </c>
       <c r="C30">
-        <v>2630</v>
+        <v>7818</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -791,10 +791,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>229</v>
+        <v>722</v>
       </c>
       <c r="C31">
-        <v>2859</v>
+        <v>8540</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -802,10 +802,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>243</v>
+        <v>750</v>
       </c>
       <c r="C32">
-        <v>3102</v>
+        <v>9290</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -813,10 +813,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>258</v>
+        <v>780</v>
       </c>
       <c r="C33">
-        <v>3360</v>
+        <v>10070</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -824,10 +824,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>273</v>
+        <v>812</v>
       </c>
       <c r="C34">
-        <v>3633</v>
+        <v>10882</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -835,10 +835,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>289</v>
+        <v>844</v>
       </c>
       <c r="C35">
-        <v>3922</v>
+        <v>11726</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -846,10 +846,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>306</v>
+        <v>878</v>
       </c>
       <c r="C36">
-        <v>4228</v>
+        <v>12604</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -857,10 +857,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>324</v>
+        <v>914</v>
       </c>
       <c r="C37">
-        <v>4552</v>
+        <v>13518</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -868,10 +868,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>342</v>
+        <v>950</v>
       </c>
       <c r="C38">
-        <v>4894</v>
+        <v>14468</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -879,10 +879,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>361</v>
+        <v>978</v>
       </c>
       <c r="C39">
-        <v>5255</v>
+        <v>15446</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -890,10 +890,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>381</v>
+        <v>1008</v>
       </c>
       <c r="C40">
-        <v>5636</v>
+        <v>16454</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -901,10 +901,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>402</v>
+        <v>1038</v>
       </c>
       <c r="C41">
-        <v>6038</v>
+        <v>17492</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -912,10 +912,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>424</v>
+        <v>1068</v>
       </c>
       <c r="C42">
-        <v>6462</v>
+        <v>18560</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -923,10 +923,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>447</v>
+        <v>1100</v>
       </c>
       <c r="C43">
-        <v>6909</v>
+        <v>19660</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -934,10 +934,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>471</v>
+        <v>1134</v>
       </c>
       <c r="C44">
-        <v>7380</v>
+        <v>20794</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -945,10 +945,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>495</v>
+        <v>1168</v>
       </c>
       <c r="C45">
-        <v>7875</v>
+        <v>21962</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -956,10 +956,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>521</v>
+        <v>1202</v>
       </c>
       <c r="C46">
-        <v>8396</v>
+        <v>23164</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -967,10 +967,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>548</v>
+        <v>1240</v>
       </c>
       <c r="C47">
-        <v>8944</v>
+        <v>24404</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -978,10 +978,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>576</v>
+        <v>1276</v>
       </c>
       <c r="C48">
-        <v>9520</v>
+        <v>25680</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -989,10 +989,10 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>606</v>
+        <v>1314</v>
       </c>
       <c r="C49">
-        <v>10126</v>
+        <v>26994</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1000,10 +1000,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>636</v>
+        <v>1354</v>
       </c>
       <c r="C50">
-        <v>10762</v>
+        <v>28348</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1011,10 +1011,10 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>668</v>
+        <v>1394</v>
       </c>
       <c r="C51">
-        <v>11430</v>
+        <v>29742</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1022,10 +1022,10 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>701</v>
+        <v>1436</v>
       </c>
       <c r="C52">
-        <v>12131</v>
+        <v>31178</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1033,10 +1033,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>736</v>
+        <v>1480</v>
       </c>
       <c r="C53">
-        <v>12867</v>
+        <v>32658</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1044,10 +1044,10 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>772</v>
+        <v>1524</v>
       </c>
       <c r="C54">
-        <v>13639</v>
+        <v>34182</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1055,10 +1055,10 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>810</v>
+        <v>1570</v>
       </c>
       <c r="C55">
-        <v>14449</v>
+        <v>35752</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1066,10 +1066,10 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>849</v>
+        <v>1616</v>
       </c>
       <c r="C56">
-        <v>15298</v>
+        <v>37368</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1077,10 +1077,10 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>889</v>
+        <v>1666</v>
       </c>
       <c r="C57">
-        <v>16187</v>
+        <v>39034</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1088,10 +1088,10 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>932</v>
+        <v>1716</v>
       </c>
       <c r="C58">
-        <v>17119</v>
+        <v>40750</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1099,10 +1099,10 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>976</v>
+        <v>1766</v>
       </c>
       <c r="C59">
-        <v>18095</v>
+        <v>42516</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1110,10 +1110,10 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1022</v>
+        <v>1820</v>
       </c>
       <c r="C60">
-        <v>19117</v>
+        <v>44336</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1121,10 +1121,10 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1070</v>
+        <v>1874</v>
       </c>
       <c r="C61">
-        <v>20187</v>
+        <v>46210</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1132,10 +1132,10 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1119</v>
+        <v>1930</v>
       </c>
       <c r="C62">
-        <v>21306</v>
+        <v>48140</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1143,10 +1143,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>1171</v>
+        <v>1988</v>
       </c>
       <c r="C63">
-        <v>22477</v>
+        <v>50128</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1154,10 +1154,10 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1225</v>
+        <v>2048</v>
       </c>
       <c r="C64">
-        <v>23702</v>
+        <v>52176</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1165,10 +1165,10 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1281</v>
+        <v>2110</v>
       </c>
       <c r="C65">
-        <v>24983</v>
+        <v>54286</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1176,10 +1176,10 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1339</v>
+        <v>2172</v>
       </c>
       <c r="C66">
-        <v>26322</v>
+        <v>56458</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1187,10 +1187,10 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1400</v>
+        <v>2238</v>
       </c>
       <c r="C67">
-        <v>27722</v>
+        <v>58696</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1198,10 +1198,10 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1463</v>
+        <v>2304</v>
       </c>
       <c r="C68">
-        <v>29185</v>
+        <v>61000</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1209,10 +1209,10 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1529</v>
+        <v>2374</v>
       </c>
       <c r="C69">
-        <v>30714</v>
+        <v>63374</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1220,10 +1220,10 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1597</v>
+        <v>2446</v>
       </c>
       <c r="C70">
-        <v>32311</v>
+        <v>65820</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1231,10 +1231,10 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1668</v>
+        <v>2518</v>
       </c>
       <c r="C71">
-        <v>33979</v>
+        <v>68338</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1242,10 +1242,10 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1742</v>
+        <v>2594</v>
       </c>
       <c r="C72">
-        <v>35721</v>
+        <v>70932</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1253,10 +1253,10 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1819</v>
+        <v>2672</v>
       </c>
       <c r="C73">
-        <v>37540</v>
+        <v>73604</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1264,10 +1264,10 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>1898</v>
+        <v>2752</v>
       </c>
       <c r="C74">
-        <v>39438</v>
+        <v>76356</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1275,10 +1275,10 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1981</v>
+        <v>2834</v>
       </c>
       <c r="C75">
-        <v>41419</v>
+        <v>79190</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1286,10 +1286,10 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>2067</v>
+        <v>2920</v>
       </c>
       <c r="C76">
-        <v>43486</v>
+        <v>82110</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1297,10 +1297,10 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2157</v>
+        <v>3008</v>
       </c>
       <c r="C77">
-        <v>45643</v>
+        <v>85118</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1308,10 +1308,10 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2250</v>
+        <v>3098</v>
       </c>
       <c r="C78">
-        <v>47893</v>
+        <v>88216</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1319,10 +1319,10 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2347</v>
+        <v>3190</v>
       </c>
       <c r="C79">
-        <v>50240</v>
+        <v>91406</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1330,10 +1330,10 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2447</v>
+        <v>3286</v>
       </c>
       <c r="C80">
-        <v>52687</v>
+        <v>94692</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1341,10 +1341,10 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>2552</v>
+        <v>3384</v>
       </c>
       <c r="C81">
-        <v>55239</v>
+        <v>98076</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1352,10 +1352,10 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>2660</v>
+        <v>3486</v>
       </c>
       <c r="C82">
-        <v>57899</v>
+        <v>101562</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1363,10 +1363,10 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>2773</v>
+        <v>3592</v>
       </c>
       <c r="C83">
-        <v>60672</v>
+        <v>105154</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1374,10 +1374,10 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2890</v>
+        <v>3698</v>
       </c>
       <c r="C84">
-        <v>63562</v>
+        <v>108852</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1385,10 +1385,10 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>3012</v>
+        <v>3810</v>
       </c>
       <c r="C85">
-        <v>66574</v>
+        <v>112662</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1396,10 +1396,10 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>3138</v>
+        <v>3924</v>
       </c>
       <c r="C86">
-        <v>69712</v>
+        <v>116586</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1407,10 +1407,10 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>3269</v>
+        <v>4042</v>
       </c>
       <c r="C87">
-        <v>72981</v>
+        <v>120628</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1418,10 +1418,10 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>3405</v>
+        <v>4164</v>
       </c>
       <c r="C88">
-        <v>76386</v>
+        <v>124792</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1429,10 +1429,10 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>3547</v>
+        <v>4288</v>
       </c>
       <c r="C89">
-        <v>79933</v>
+        <v>129080</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1440,10 +1440,10 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>3693</v>
+        <v>4416</v>
       </c>
       <c r="C90">
-        <v>83626</v>
+        <v>133496</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1451,10 +1451,10 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>3846</v>
+        <v>4550</v>
       </c>
       <c r="C91">
-        <v>87472</v>
+        <v>138046</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1462,10 +1462,10 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>4004</v>
+        <v>4686</v>
       </c>
       <c r="C92">
-        <v>91476</v>
+        <v>142732</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1473,10 +1473,10 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>4168</v>
+        <v>4826</v>
       </c>
       <c r="C93">
-        <v>95644</v>
+        <v>147558</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1484,10 +1484,10 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>4339</v>
+        <v>4970</v>
       </c>
       <c r="C94">
-        <v>99983</v>
+        <v>152528</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1495,10 +1495,10 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>4516</v>
+        <v>5120</v>
       </c>
       <c r="C95">
-        <v>104499</v>
+        <v>157648</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1506,10 +1506,10 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>4700</v>
+        <v>5274</v>
       </c>
       <c r="C96">
-        <v>109199</v>
+        <v>162922</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1517,10 +1517,10 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>4891</v>
+        <v>5432</v>
       </c>
       <c r="C97">
-        <v>114090</v>
+        <v>168354</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1528,10 +1528,10 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>5089</v>
+        <v>5594</v>
       </c>
       <c r="C98">
-        <v>119179</v>
+        <v>173948</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1539,10 +1539,10 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>5294</v>
+        <v>5762</v>
       </c>
       <c r="C99">
-        <v>124473</v>
+        <v>179710</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1550,10 +1550,10 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>5507</v>
+        <v>5936</v>
       </c>
       <c r="C100">
-        <v>129980</v>
+        <v>185646</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1561,10 +1561,10 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>5728</v>
+        <v>6114</v>
       </c>
       <c r="C101">
-        <v>135708</v>
+        <v>191760</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1572,10 +1572,10 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>5958</v>
+        <v>6298</v>
       </c>
       <c r="C102">
-        <v>141666</v>
+        <v>198058</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1583,10 +1583,10 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>6196</v>
+        <v>6486</v>
       </c>
       <c r="C103">
-        <v>147862</v>
+        <v>204544</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1594,10 +1594,10 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>6443</v>
+        <v>6680</v>
       </c>
       <c r="C104">
-        <v>154305</v>
+        <v>211224</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1605,10 +1605,10 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>6699</v>
+        <v>6880</v>
       </c>
       <c r="C105">
-        <v>161004</v>
+        <v>218104</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1616,10 +1616,10 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>6965</v>
+        <v>7088</v>
       </c>
       <c r="C106">
-        <v>167969</v>
+        <v>225192</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1627,10 +1627,10 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>7241</v>
+        <v>7300</v>
       </c>
       <c r="C107">
-        <v>175210</v>
+        <v>232492</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -1638,10 +1638,10 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>7527</v>
+        <v>7518</v>
       </c>
       <c r="C108">
-        <v>182737</v>
+        <v>240010</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -1649,10 +1649,10 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>7824</v>
+        <v>7744</v>
       </c>
       <c r="C109">
-        <v>190561</v>
+        <v>247754</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -1660,10 +1660,10 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>8131</v>
+        <v>7976</v>
       </c>
       <c r="C110">
-        <v>198692</v>
+        <v>255730</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -1671,10 +1671,10 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>8451</v>
+        <v>8216</v>
       </c>
       <c r="C111">
-        <v>207143</v>
+        <v>263946</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -1682,10 +1682,10 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>8782</v>
+        <v>8462</v>
       </c>
       <c r="C112">
-        <v>215925</v>
+        <v>272408</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -1693,10 +1693,10 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>9125</v>
+        <v>8716</v>
       </c>
       <c r="C113">
-        <v>225050</v>
+        <v>281124</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -1704,10 +1704,10 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>9481</v>
+        <v>8978</v>
       </c>
       <c r="C114">
-        <v>234531</v>
+        <v>290102</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -1715,10 +1715,10 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>9850</v>
+        <v>9248</v>
       </c>
       <c r="C115">
-        <v>244381</v>
+        <v>299350</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -1726,10 +1726,10 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>10233</v>
+        <v>9524</v>
       </c>
       <c r="C116">
-        <v>254614</v>
+        <v>308874</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -1737,10 +1737,10 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>10629</v>
+        <v>9810</v>
       </c>
       <c r="C117">
-        <v>265243</v>
+        <v>318684</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -1748,10 +1748,10 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>11041</v>
+        <v>10104</v>
       </c>
       <c r="C118">
-        <v>276284</v>
+        <v>328788</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -1759,10 +1759,10 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>11467</v>
+        <v>10408</v>
       </c>
       <c r="C119">
-        <v>287751</v>
+        <v>339196</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -1770,10 +1770,10 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>11910</v>
+        <v>10720</v>
       </c>
       <c r="C120">
-        <v>299661</v>
+        <v>349916</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -1781,10 +1781,10 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>12368</v>
+        <v>11020</v>
       </c>
       <c r="C121">
-        <v>312029</v>
+        <v>360936</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -1792,10 +1792,10 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>12843</v>
+        <v>11296</v>
       </c>
       <c r="C122">
-        <v>324872</v>
+        <v>372232</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -1803,10 +1803,10 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>13336</v>
+        <v>11578</v>
       </c>
       <c r="C123">
-        <v>338208</v>
+        <v>383810</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -1814,10 +1814,10 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>13846</v>
+        <v>11868</v>
       </c>
       <c r="C124">
-        <v>352054</v>
+        <v>395678</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -1825,10 +1825,10 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>14375</v>
+        <v>12164</v>
       </c>
       <c r="C125">
-        <v>366429</v>
+        <v>407842</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -1836,10 +1836,10 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>14924</v>
+        <v>12468</v>
       </c>
       <c r="C126">
-        <v>381353</v>
+        <v>420310</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -1847,10 +1847,10 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>15492</v>
+        <v>12780</v>
       </c>
       <c r="C127">
-        <v>396845</v>
+        <v>433090</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -1858,10 +1858,10 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>16081</v>
+        <v>13100</v>
       </c>
       <c r="C128">
-        <v>412926</v>
+        <v>446190</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -1869,10 +1869,10 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>16692</v>
+        <v>13428</v>
       </c>
       <c r="C129">
-        <v>429618</v>
+        <v>459618</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -1880,10 +1880,10 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>17325</v>
+        <v>13762</v>
       </c>
       <c r="C130">
-        <v>446943</v>
+        <v>473380</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -1891,10 +1891,10 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>17980</v>
+        <v>14108</v>
       </c>
       <c r="C131">
-        <v>464923</v>
+        <v>487488</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -1902,10 +1902,10 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>18659</v>
+        <v>14460</v>
       </c>
       <c r="C132">
-        <v>483582</v>
+        <v>501948</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -1913,10 +1913,10 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>19363</v>
+        <v>14822</v>
       </c>
       <c r="C133">
-        <v>502945</v>
+        <v>516770</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -1924,10 +1924,10 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>20093</v>
+        <v>15162</v>
       </c>
       <c r="C134">
-        <v>523038</v>
+        <v>531932</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -1935,10 +1935,10 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>20848</v>
+        <v>15480</v>
       </c>
       <c r="C135">
-        <v>543886</v>
+        <v>547412</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -1946,10 +1946,10 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>21631</v>
+        <v>15806</v>
       </c>
       <c r="C136">
-        <v>565517</v>
+        <v>563218</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -1957,10 +1957,10 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>22443</v>
+        <v>16024</v>
       </c>
       <c r="C137">
-        <v>587960</v>
+        <v>579242</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -1968,10 +1968,10 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>23283</v>
+        <v>16244</v>
       </c>
       <c r="C138">
-        <v>611243</v>
+        <v>595486</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -1979,10 +1979,10 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>24154</v>
+        <v>16464</v>
       </c>
       <c r="C139">
-        <v>635397</v>
+        <v>611950</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -1990,10 +1990,10 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>25055</v>
+        <v>16686</v>
       </c>
       <c r="C140">
-        <v>660452</v>
+        <v>628636</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2001,10 +2001,10 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>25990</v>
+        <v>16910</v>
       </c>
       <c r="C141">
-        <v>686442</v>
+        <v>645546</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2012,10 +2012,10 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>26958</v>
+        <v>17136</v>
       </c>
       <c r="C142">
-        <v>713400</v>
+        <v>662682</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2023,10 +2023,10 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>27960</v>
+        <v>17364</v>
       </c>
       <c r="C143">
-        <v>741360</v>
+        <v>680046</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2034,10 +2034,10 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>28998</v>
+        <v>17592</v>
       </c>
       <c r="C144">
-        <v>770358</v>
+        <v>697638</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2045,10 +2045,10 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>30074</v>
+        <v>17822</v>
       </c>
       <c r="C145">
-        <v>800432</v>
+        <v>715460</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2056,10 +2056,10 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>31188</v>
+        <v>18052</v>
       </c>
       <c r="C146">
-        <v>831620</v>
+        <v>733512</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2067,10 +2067,10 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>32341</v>
+        <v>18286</v>
       </c>
       <c r="C147">
-        <v>863961</v>
+        <v>751798</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2078,10 +2078,10 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>33536</v>
+        <v>18520</v>
       </c>
       <c r="C148">
-        <v>897497</v>
+        <v>770318</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2089,10 +2089,10 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>34774</v>
+        <v>18756</v>
       </c>
       <c r="C149">
-        <v>932271</v>
+        <v>789074</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2100,10 +2100,10 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>36055</v>
+        <v>18994</v>
       </c>
       <c r="C150">
-        <v>968326</v>
+        <v>808068</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2111,10 +2111,10 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>37382</v>
+        <v>19218</v>
       </c>
       <c r="C151">
-        <v>1005708</v>
+        <v>827286</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2122,10 +2122,10 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>38756</v>
+        <v>19442</v>
       </c>
       <c r="C152">
-        <v>1044464</v>
+        <v>846728</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2133,10 +2133,10 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>40179</v>
+        <v>19668</v>
       </c>
       <c r="C153">
-        <v>1084643</v>
+        <v>866396</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -2144,10 +2144,10 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>41653</v>
+        <v>19896</v>
       </c>
       <c r="C154">
-        <v>1126296</v>
+        <v>886292</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2155,10 +2155,10 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>43179</v>
+        <v>20124</v>
       </c>
       <c r="C155">
-        <v>1169475</v>
+        <v>906416</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2166,10 +2166,10 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>44758</v>
+        <v>20354</v>
       </c>
       <c r="C156">
-        <v>1214233</v>
+        <v>926770</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2177,10 +2177,10 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>46394</v>
+        <v>20586</v>
       </c>
       <c r="C157">
-        <v>1260627</v>
+        <v>947356</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2188,10 +2188,10 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>48088</v>
+        <v>20818</v>
       </c>
       <c r="C158">
-        <v>1308715</v>
+        <v>968174</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2199,10 +2199,10 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>49841</v>
+        <v>21052</v>
       </c>
       <c r="C159">
-        <v>1358556</v>
+        <v>989226</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -2210,10 +2210,10 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>51657</v>
+        <v>21286</v>
       </c>
       <c r="C160">
-        <v>1410213</v>
+        <v>1010502</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -2221,10 +2221,10 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>53536</v>
+        <v>21524</v>
       </c>
       <c r="C161">
-        <v>1463749</v>
+        <v>1032026</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -2232,10 +2232,10 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>55482</v>
+        <v>21762</v>
       </c>
       <c r="C162">
-        <v>1519231</v>
+        <v>1053788</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -2243,10 +2243,10 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>57496</v>
+        <v>22000</v>
       </c>
       <c r="C163">
-        <v>1576727</v>
+        <v>1075788</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -2254,10 +2254,10 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>59582</v>
+        <v>22240</v>
       </c>
       <c r="C164">
-        <v>1636309</v>
+        <v>1098028</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -2265,10 +2265,10 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>61740</v>
+        <v>22482</v>
       </c>
       <c r="C165">
-        <v>1698049</v>
+        <v>1120510</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -2276,10 +2276,10 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>63975</v>
+        <v>22726</v>
       </c>
       <c r="C166">
-        <v>1762024</v>
+        <v>1143236</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -2287,10 +2287,10 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>66288</v>
+        <v>22970</v>
       </c>
       <c r="C167">
-        <v>1828312</v>
+        <v>1166206</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -2298,10 +2298,10 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>68682</v>
+        <v>23216</v>
       </c>
       <c r="C168">
-        <v>1896994</v>
+        <v>1189422</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -2309,10 +2309,10 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>71160</v>
+        <v>23462</v>
       </c>
       <c r="C169">
-        <v>1968154</v>
+        <v>1212884</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -2320,10 +2320,10 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>73725</v>
+        <v>23712</v>
       </c>
       <c r="C170">
-        <v>2041879</v>
+        <v>1236596</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -2331,10 +2331,10 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>76380</v>
+        <v>23960</v>
       </c>
       <c r="C171">
-        <v>2118259</v>
+        <v>1260556</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -2342,10 +2342,10 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>79128</v>
+        <v>24212</v>
       </c>
       <c r="C172">
-        <v>2197387</v>
+        <v>1284768</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2353,10 +2353,10 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>81972</v>
+        <v>24464</v>
       </c>
       <c r="C173">
-        <v>2279359</v>
+        <v>1309232</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -2364,10 +2364,10 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>84916</v>
+        <v>24718</v>
       </c>
       <c r="C174">
-        <v>2364275</v>
+        <v>1333950</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2375,10 +2375,10 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>87962</v>
+        <v>24972</v>
       </c>
       <c r="C175">
-        <v>2452237</v>
+        <v>1358922</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -2386,10 +2386,10 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>91115</v>
+        <v>25228</v>
       </c>
       <c r="C176">
-        <v>2543352</v>
+        <v>1384150</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2397,10 +2397,10 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>94377</v>
+        <v>25486</v>
       </c>
       <c r="C177">
-        <v>2637729</v>
+        <v>1409636</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -2408,10 +2408,10 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>97754</v>
+        <v>25744</v>
       </c>
       <c r="C178">
-        <v>2735483</v>
+        <v>1435380</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2419,10 +2419,10 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>101248</v>
+        <v>26004</v>
       </c>
       <c r="C179">
-        <v>2836731</v>
+        <v>1461384</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -2430,10 +2430,10 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>104864</v>
+        <v>26266</v>
       </c>
       <c r="C180">
-        <v>2941595</v>
+        <v>1487650</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -2441,10 +2441,10 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>108605</v>
+        <v>26528</v>
       </c>
       <c r="C181">
-        <v>3050200</v>
+        <v>1514178</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -2452,10 +2452,10 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>112477</v>
+        <v>26792</v>
       </c>
       <c r="C182">
-        <v>3162677</v>
+        <v>1540970</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -2463,10 +2463,10 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>116483</v>
+        <v>27058</v>
       </c>
       <c r="C183">
-        <v>3279160</v>
+        <v>1568028</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -2474,10 +2474,10 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>120628</v>
+        <v>27324</v>
       </c>
       <c r="C184">
-        <v>3399788</v>
+        <v>1595352</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -2485,10 +2485,10 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>124918</v>
+        <v>27592</v>
       </c>
       <c r="C185">
-        <v>3524706</v>
+        <v>1622944</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -2496,10 +2496,10 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>129356</v>
+        <v>27862</v>
       </c>
       <c r="C186">
-        <v>3654062</v>
+        <v>1650806</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -2507,10 +2507,10 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>133948</v>
+        <v>28132</v>
       </c>
       <c r="C187">
-        <v>3788010</v>
+        <v>1678938</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -2518,10 +2518,10 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>138699</v>
+        <v>28404</v>
       </c>
       <c r="C188">
-        <v>3926709</v>
+        <v>1707342</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -2529,10 +2529,10 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>143614</v>
+        <v>28676</v>
       </c>
       <c r="C189">
-        <v>4070323</v>
+        <v>1736018</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -2540,10 +2540,10 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>148700</v>
+        <v>28952</v>
       </c>
       <c r="C190">
-        <v>4219023</v>
+        <v>1764970</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -2551,10 +2551,10 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>153961</v>
+        <v>29226</v>
       </c>
       <c r="C191">
-        <v>4372984</v>
+        <v>1794196</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -2562,10 +2562,10 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>159405</v>
+        <v>29504</v>
       </c>
       <c r="C192">
-        <v>4532389</v>
+        <v>1823700</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -2573,10 +2573,10 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>165036</v>
+        <v>29782</v>
       </c>
       <c r="C193">
-        <v>4697425</v>
+        <v>1853482</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -2584,10 +2584,10 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>170862</v>
+        <v>30062</v>
       </c>
       <c r="C194">
-        <v>4868287</v>
+        <v>1883544</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2595,10 +2595,10 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>176889</v>
+        <v>30342</v>
       </c>
       <c r="C195">
-        <v>5045176</v>
+        <v>1913886</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -2606,10 +2606,10 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>183123</v>
+        <v>30626</v>
       </c>
       <c r="C196">
-        <v>5228299</v>
+        <v>1944512</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -2617,10 +2617,10 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>189573</v>
+        <v>30908</v>
       </c>
       <c r="C197">
-        <v>5417872</v>
+        <v>1975420</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -2628,10 +2628,10 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>196244</v>
+        <v>31194</v>
       </c>
       <c r="C198">
-        <v>5614116</v>
+        <v>2006614</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -2639,10 +2639,10 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>203146</v>
+        <v>31480</v>
       </c>
       <c r="C199">
-        <v>5817262</v>
+        <v>2038094</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2650,10 +2650,10 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>210285</v>
+        <v>31768</v>
       </c>
       <c r="C200">
-        <v>6027547</v>
+        <v>2069862</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -2661,10 +2661,10 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>217669</v>
+        <v>32056</v>
       </c>
       <c r="C201">
-        <v>6245216</v>
+        <v>2101918</v>
       </c>
     </row>
   </sheetData>
@@ -2676,9 +2676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C83AEF-36D5-4227-BE4D-F8774DFCFEEF}">
   <dimension ref="A1:A366"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3789,6 +3787,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e28eed45-f2c9-458a-932b-1d28c9263180" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DB6D6CECD59852428E4B287CAD02381F" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="aedf69cb1304aa7df37df47af5abf089">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e28eed45-f2c9-458a-932b-1d28c9263180" xmlns:ns4="13f386c7-4061-473f-b006-6c9975329a49" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0ba831f2bd4b00c124924ec63e8b1d81" ns3:_="" ns4:_="">
     <xsd:import namespace="e28eed45-f2c9-458a-932b-1d28c9263180"/>
@@ -4021,24 +4036,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20C61689-D3CE-4489-8BC8-1FEE545B7855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="13f386c7-4061-473f-b006-6c9975329a49"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="e28eed45-f2c9-458a-932b-1d28c9263180"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e28eed45-f2c9-458a-932b-1d28c9263180" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5F08CA7-9E8B-408F-B668-EA9FFE641031}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65688764-C4AA-4AF6-A73D-F610B6472D72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4055,29 +4078,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5F08CA7-9E8B-408F-B668-EA9FFE641031}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20C61689-D3CE-4489-8BC8-1FEE545B7855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="13f386c7-4061-473f-b006-6c9975329a49"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="e28eed45-f2c9-458a-932b-1d28c9263180"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>